--- a/team_specific_matrix/Middle Tenn._A.xlsx
+++ b/team_specific_matrix/Middle Tenn._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2412060301507538</v>
+        <v>0.2330827067669173</v>
       </c>
       <c r="C2">
-        <v>0.4874371859296482</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01507537688442211</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.01005025125628141</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="P2">
-        <v>0.1608040201005025</v>
+        <v>0.1691729323308271</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08542713567839195</v>
+        <v>0.07518796992481203</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01923076923076923</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="C3">
-        <v>0.0576923076923077</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02884615384615385</v>
+        <v>0.05035971223021583</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6634615384615384</v>
+        <v>0.6546762589928058</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2307692307692308</v>
+        <v>0.2302158273381295</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06451612903225806</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6129032258064516</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3225806451612903</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03592814371257485</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01197604790419162</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0718562874251497</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2634730538922156</v>
+        <v>0.2811059907834101</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03592814371257485</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09580838323353294</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="R6">
-        <v>0.05988023952095808</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="S6">
-        <v>0.4251497005988024</v>
+        <v>0.3963133640552995</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09701492537313433</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007462686567164179</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1044776119402985</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1268656716417911</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02238805970149254</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1716417910447761</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="R7">
-        <v>0.08208955223880597</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="S7">
-        <v>0.3880597014925373</v>
+        <v>0.3801169590643275</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08493150684931507</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01095890410958904</v>
+        <v>0.01091703056768559</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08493150684931507</v>
+        <v>0.0851528384279476</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1150684931506849</v>
+        <v>0.1244541484716157</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03013698630136986</v>
+        <v>0.02838427947598253</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1397260273972603</v>
+        <v>0.1397379912663755</v>
       </c>
       <c r="R8">
-        <v>0.07945205479452055</v>
+        <v>0.08078602620087336</v>
       </c>
       <c r="S8">
-        <v>0.4547945205479452</v>
+        <v>0.4432314410480349</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05357142857142857</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01785714285714286</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.07751937984496124</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03571428571428571</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1428571428571428</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="R9">
-        <v>0.1071428571428571</v>
+        <v>0.1007751937984496</v>
       </c>
       <c r="S9">
-        <v>0.4285714285714285</v>
+        <v>0.4108527131782946</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09764309764309764</v>
+        <v>0.1073943661971831</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02469135802469136</v>
+        <v>0.02288732394366197</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06846240179573512</v>
+        <v>0.07130281690140845</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1099887766554433</v>
+        <v>0.1091549295774648</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0202020202020202</v>
+        <v>0.02200704225352113</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1896745230078563</v>
+        <v>0.1936619718309859</v>
       </c>
       <c r="R10">
-        <v>0.08529741863075196</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="S10">
-        <v>0.404040404040404</v>
+        <v>0.3961267605633803</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1442786069651741</v>
+        <v>0.1544401544401544</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.109452736318408</v>
+        <v>0.1042471042471042</v>
       </c>
       <c r="K11">
-        <v>0.2189054726368159</v>
+        <v>0.2239382239382239</v>
       </c>
       <c r="L11">
-        <v>0.5174129353233831</v>
+        <v>0.5057915057915058</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009950248756218905</v>
+        <v>0.01158301158301158</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8113207547169812</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1415094339622641</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01886792452830189</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02830188679245283</v>
+        <v>0.02985074626865672</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8125</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.15625</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03125</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1610738255033557</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="I15">
-        <v>0.04026845637583892</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="J15">
-        <v>0.3154362416107382</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="K15">
-        <v>0.08053691275167785</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006711409395973154</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03355704697986577</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3624161073825503</v>
+        <v>0.3368421052631579</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008547008547008548</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1965811965811966</v>
+        <v>0.2371794871794872</v>
       </c>
       <c r="I16">
-        <v>0.04273504273504274</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="J16">
-        <v>0.3931623931623932</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="K16">
-        <v>0.1367521367521368</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02564102564102564</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04273504273504274</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1538461538461539</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01858736059479554</v>
+        <v>0.02023121387283237</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1858736059479554</v>
+        <v>0.1878612716763006</v>
       </c>
       <c r="I17">
-        <v>0.08550185873605948</v>
+        <v>0.07803468208092486</v>
       </c>
       <c r="J17">
-        <v>0.4423791821561338</v>
+        <v>0.4421965317919075</v>
       </c>
       <c r="K17">
-        <v>0.06691449814126393</v>
+        <v>0.07225433526011561</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01858736059479554</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="N17">
-        <v>0.003717472118959108</v>
+        <v>0.002890173410404624</v>
       </c>
       <c r="O17">
-        <v>0.0483271375464684</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1301115241635688</v>
+        <v>0.1271676300578035</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02857142857142857</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2142857142857143</v>
+        <v>0.1977401129943503</v>
       </c>
       <c r="I18">
-        <v>0.04285714285714286</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="J18">
-        <v>0.3785714285714286</v>
+        <v>0.384180790960452</v>
       </c>
       <c r="K18">
-        <v>0.1071428571428571</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007142857142857143</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05714285714285714</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1642857142857143</v>
+        <v>0.1638418079096045</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01197604790419162</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2355289421157685</v>
+        <v>0.2327656123276561</v>
       </c>
       <c r="I19">
-        <v>0.0718562874251497</v>
+        <v>0.06731549067315491</v>
       </c>
       <c r="J19">
-        <v>0.3772455089820359</v>
+        <v>0.3763179237631792</v>
       </c>
       <c r="K19">
-        <v>0.09481037924151696</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02295409181636726</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05489021956087824</v>
+        <v>0.0575831305758313</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1307385229540918</v>
+        <v>0.129764801297648</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Middle Tenn._A.xlsx
+++ b/team_specific_matrix/Middle Tenn._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2330827067669173</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="C2">
-        <v>0.4962406015037594</v>
+        <v>0.4966887417218543</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01879699248120301</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.007518796992481203</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="P2">
-        <v>0.1691729323308271</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07518796992481203</v>
+        <v>0.07947019867549669</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02158273381294964</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="C3">
-        <v>0.04316546762589928</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05035971223021583</v>
+        <v>0.05095541401273886</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6546762589928058</v>
+        <v>0.6751592356687898</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2302158273381295</v>
+        <v>0.2165605095541401</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03225806451612903</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009216589861751152</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06451612903225806</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2811059907834101</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02764976958525346</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1105990783410138</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="R6">
-        <v>0.07834101382488479</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="S6">
-        <v>0.3963133640552995</v>
+        <v>0.3931623931623932</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09941520467836257</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01169590643274854</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08187134502923976</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1228070175438596</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02339181286549707</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1637426900584795</v>
+        <v>0.158974358974359</v>
       </c>
       <c r="R7">
-        <v>0.1169590643274854</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="S7">
-        <v>0.3801169590643275</v>
+        <v>0.3897435897435897</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08733624454148471</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01091703056768559</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0851528384279476</v>
+        <v>0.08179959100204499</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1244541484716157</v>
+        <v>0.1247443762781186</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02838427947598253</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1397379912663755</v>
+        <v>0.1329243353783231</v>
       </c>
       <c r="R8">
-        <v>0.08078602620087336</v>
+        <v>0.08179959100204499</v>
       </c>
       <c r="S8">
-        <v>0.4432314410480349</v>
+        <v>0.4437627811860941</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06201550387596899</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0310077519379845</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07751937984496124</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1472868217054264</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0310077519379845</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1395348837209302</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="R9">
-        <v>0.1007751937984496</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="S9">
-        <v>0.4108527131782946</v>
+        <v>0.4125874125874126</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1073943661971831</v>
+        <v>0.1129296235679214</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02288732394366197</v>
+        <v>0.0237315875613748</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008183306055646482</v>
       </c>
       <c r="F10">
-        <v>0.07130281690140845</v>
+        <v>0.07037643207855974</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1091549295774648</v>
+        <v>0.1088379705400982</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02200704225352113</v>
+        <v>0.0220949263502455</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1936619718309859</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="R10">
-        <v>0.07746478873239436</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="S10">
-        <v>0.3961267605633803</v>
+        <v>0.3944353518821604</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1544401544401544</v>
+        <v>0.1569965870307167</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1042471042471042</v>
+        <v>0.09556313993174062</v>
       </c>
       <c r="K11">
-        <v>0.2239382239382239</v>
+        <v>0.2184300341296928</v>
       </c>
       <c r="L11">
-        <v>0.5057915057915058</v>
+        <v>0.515358361774744</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01158301158301158</v>
+        <v>0.0136518771331058</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8208955223880597</v>
+        <v>0.8129032258064516</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1268656716417911</v>
+        <v>0.1354838709677419</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02238805970149254</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02985074626865672</v>
+        <v>0.02580645161290323</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1842105263157895</v>
+        <v>0.175</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01052631578947368</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1684210526315789</v>
+        <v>0.1592039800995025</v>
       </c>
       <c r="I15">
-        <v>0.03157894736842105</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="J15">
-        <v>0.3368421052631579</v>
+        <v>0.3383084577114428</v>
       </c>
       <c r="K15">
-        <v>0.07368421052631578</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005263157894736842</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03684210526315789</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3368421052631579</v>
+        <v>0.3383084577114428</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00641025641025641</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2371794871794872</v>
+        <v>0.2346368715083799</v>
       </c>
       <c r="I16">
-        <v>0.03205128205128205</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="J16">
-        <v>0.3974358974358974</v>
+        <v>0.3966480446927375</v>
       </c>
       <c r="K16">
-        <v>0.1282051282051282</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01923076923076923</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04487179487179487</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1346153846153846</v>
+        <v>0.1340782122905028</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02023121387283237</v>
+        <v>0.0217983651226158</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1878612716763006</v>
+        <v>0.1825613079019074</v>
       </c>
       <c r="I17">
-        <v>0.07803468208092486</v>
+        <v>0.07629427792915532</v>
       </c>
       <c r="J17">
-        <v>0.4421965317919075</v>
+        <v>0.4359673024523161</v>
       </c>
       <c r="K17">
-        <v>0.07225433526011561</v>
+        <v>0.08174386920980926</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01734104046242774</v>
+        <v>0.01634877384196185</v>
       </c>
       <c r="N17">
-        <v>0.002890173410404624</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="O17">
-        <v>0.05202312138728324</v>
+        <v>0.05177111716621254</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1271676300578035</v>
+        <v>0.1307901907356948</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02824858757062147</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1977401129943503</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="I18">
-        <v>0.05084745762711865</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="J18">
-        <v>0.384180790960452</v>
+        <v>0.3717277486910995</v>
       </c>
       <c r="K18">
-        <v>0.1016949152542373</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01129943502824859</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06214689265536723</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1638418079096045</v>
+        <v>0.1570680628272251</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0145985401459854</v>
+        <v>0.01500375093773443</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2327656123276561</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="I19">
-        <v>0.06731549067315491</v>
+        <v>0.0690172543135784</v>
       </c>
       <c r="J19">
-        <v>0.3763179237631792</v>
+        <v>0.3743435858964741</v>
       </c>
       <c r="K19">
-        <v>0.09975669099756691</v>
+        <v>0.1035258814703676</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0218978102189781</v>
+        <v>0.02100525131282821</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0575831305758313</v>
+        <v>0.05476369092273068</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.129764801297648</v>
+        <v>0.1297824456114028</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Middle Tenn._A.xlsx
+++ b/team_specific_matrix/Middle Tenn._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2317880794701987</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="C2">
-        <v>0.4966887417218543</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01986754966887417</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.006622516556291391</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="P2">
-        <v>0.1655629139072848</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07947019867549669</v>
+        <v>0.07792207792207792</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01910828025477707</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="C3">
-        <v>0.03821656050955414</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05095541401273886</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6751592356687898</v>
+        <v>0.676829268292683</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2165605095541401</v>
+        <v>0.2134146341463415</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6428571428571429</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03846153846153846</v>
+        <v>0.0371900826446281</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008547008547008548</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0641025641025641</v>
+        <v>0.06198347107438017</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.282051282051282</v>
+        <v>0.2809917355371901</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02564102564102564</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1025641025641026</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="R6">
-        <v>0.08547008547008547</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="S6">
-        <v>0.3931623931623932</v>
+        <v>0.3925619834710744</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09743589743589744</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01025641025641026</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08205128205128205</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1282051282051282</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02051282051282051</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.158974358974359</v>
+        <v>0.1557788944723618</v>
       </c>
       <c r="R7">
-        <v>0.1128205128205128</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="S7">
-        <v>0.3897435897435897</v>
+        <v>0.3919597989949749</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09202453987730061</v>
+        <v>0.09108910891089109</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01226993865030675</v>
+        <v>0.01188118811881188</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08179959100204499</v>
+        <v>0.08514851485148515</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1247443762781186</v>
+        <v>0.1207920792079208</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03067484662576687</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1329243353783231</v>
+        <v>0.1326732673267327</v>
       </c>
       <c r="R8">
-        <v>0.08179959100204499</v>
+        <v>0.08118811881188119</v>
       </c>
       <c r="S8">
-        <v>0.4437627811860941</v>
+        <v>0.4475247524752475</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07692307692307693</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02797202797202797</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06993006993006994</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1328671328671329</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02797202797202797</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1398601398601399</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="R9">
-        <v>0.1118881118881119</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="S9">
-        <v>0.4125874125874126</v>
+        <v>0.4093959731543624</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1129296235679214</v>
+        <v>0.11198738170347</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0237315875613748</v>
+        <v>0.02287066246056782</v>
       </c>
       <c r="E10">
-        <v>0.0008183306055646482</v>
+        <v>0.0007886435331230284</v>
       </c>
       <c r="F10">
-        <v>0.07037643207855974</v>
+        <v>0.0694006309148265</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1088379705400982</v>
+        <v>0.110410094637224</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0220949263502455</v>
+        <v>0.02129337539432177</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1923076923076923</v>
+        <v>0.1916403785488959</v>
       </c>
       <c r="R10">
-        <v>0.07446808510638298</v>
+        <v>0.07649842271293375</v>
       </c>
       <c r="S10">
-        <v>0.3944353518821604</v>
+        <v>0.3951104100946372</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1569965870307167</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09556313993174062</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K11">
-        <v>0.2184300341296928</v>
+        <v>0.2225913621262458</v>
       </c>
       <c r="L11">
-        <v>0.515358361774744</v>
+        <v>0.5083056478405316</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0136518771331058</v>
+        <v>0.0132890365448505</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8129032258064516</v>
+        <v>0.8089171974522293</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1354838709677419</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02580645161290323</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02580645161290323</v>
+        <v>0.02547770700636943</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.175</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009950248756218905</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1592039800995025</v>
+        <v>0.1545893719806763</v>
       </c>
       <c r="I15">
-        <v>0.03482587064676617</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="J15">
-        <v>0.3383084577114428</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="K15">
-        <v>0.07462686567164178</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004975124378109453</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03980099502487562</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3383084577114428</v>
+        <v>0.3285024154589372</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0111731843575419</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2346368715083799</v>
+        <v>0.2486486486486487</v>
       </c>
       <c r="I16">
-        <v>0.0335195530726257</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="J16">
-        <v>0.3966480446927375</v>
+        <v>0.3837837837837838</v>
       </c>
       <c r="K16">
-        <v>0.1229050279329609</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01675977653631285</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05027932960893855</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1340782122905028</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0217983651226158</v>
+        <v>0.02110817941952507</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1825613079019074</v>
+        <v>0.1794195250659631</v>
       </c>
       <c r="I17">
-        <v>0.07629427792915532</v>
+        <v>0.079155672823219</v>
       </c>
       <c r="J17">
-        <v>0.4359673024523161</v>
+        <v>0.4379947229551451</v>
       </c>
       <c r="K17">
-        <v>0.08174386920980926</v>
+        <v>0.079155672823219</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01634877384196185</v>
+        <v>0.01846965699208443</v>
       </c>
       <c r="N17">
-        <v>0.002724795640326975</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="O17">
-        <v>0.05177111716621254</v>
+        <v>0.05277044854881267</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1307901907356948</v>
+        <v>0.129287598944591</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03141361256544502</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1884816753926702</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="I18">
-        <v>0.05759162303664921</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="J18">
-        <v>0.3717277486910995</v>
+        <v>0.3781094527363184</v>
       </c>
       <c r="K18">
-        <v>0.1204188481675393</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01570680628272251</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05759162303664921</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1570680628272251</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01500375093773443</v>
+        <v>0.01531728665207877</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2325581395348837</v>
+        <v>0.2319474835886214</v>
       </c>
       <c r="I19">
-        <v>0.0690172543135784</v>
+        <v>0.0700218818380744</v>
       </c>
       <c r="J19">
-        <v>0.3743435858964741</v>
+        <v>0.3778264040846098</v>
       </c>
       <c r="K19">
-        <v>0.1035258814703676</v>
+        <v>0.1021152443471918</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02100525131282821</v>
+        <v>0.02042304886943837</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05476369092273068</v>
+        <v>0.05470459518599562</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1297824456114028</v>
+        <v>0.1276440554339898</v>
       </c>
     </row>
   </sheetData>
